--- a/biology/Zoologie/Baurusuchidae/Baurusuchidae.xlsx
+++ b/biology/Zoologie/Baurusuchidae/Baurusuchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Baurusuchidae, les baurusuchidés en français, forment une famille éteinte de crocodyliformes, un clade qui comprend les crocodiliens modernes et leurs plus proches parents fossiles[2]. Elle est rattachée au sous-ordre des Notosuchia (ou notosuchiens en français) et aux clades successifs des Ziphosuchia et des Sebecosuchia[3]. Ces Crocodyliformes terrestres hypercarnivores qui pouvaient atteindre 4 mètres de long, ont vécu en Amérique du Sud, sur le supercontinent du Gondwana au cours du Crétacé supérieur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Baurusuchidae, les baurusuchidés en français, forment une famille éteinte de crocodyliformes, un clade qui comprend les crocodiliens modernes et leurs plus proches parents fossiles. Elle est rattachée au sous-ordre des Notosuchia (ou notosuchiens en français) et aux clades successifs des Ziphosuchia et des Sebecosuchia. Ces Crocodyliformes terrestres hypercarnivores qui pouvaient atteindre 4 mètres de long, ont vécu en Amérique du Sud, sur le supercontinent du Gondwana au cours du Crétacé supérieur.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2011, F. C. Montefeltro et ses collègues ont créé deux sous-familles au sein des baurusuchidés, les Baurusuchinae et les Pissarrachampsinae[4]. Elles ne sont pas reprises par tous les auteurs[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2011, F. C. Montefeltro et ses collègues ont créé deux sous-familles au sein des baurusuchidés, les Baurusuchinae et les Pissarrachampsinae. Elles ne sont pas reprises par tous les auteurs,.
 † ? Aplestosuchus (Brésil)
-† Baurusuchus, le genre type[1], (Brésil)
+† Baurusuchus, le genre type, (Brésil)
 † Campinasuchus (Brésil)
 † Cynodontosuchus du Santonien d'Argentine
 † ? Gondwanasuchus (Brésil)
-† ? Pabwehshi du Maastrichtien du Pakistan[5], exclu de la famille par Diego Pol et ses collègues en 2014 et placé en groupe frère des Baurusuchidae[3].
+† ? Pabwehshi du Maastrichtien du Pakistan, exclu de la famille par Diego Pol et ses collègues en 2014 et placé en groupe frère des Baurusuchidae.
 † Pissarrachampsa (Brésil)
 † Stratiotosuchus (Brésil)
 † ? Wargosuchus du Santonien d'Argentine</t>
@@ -550,9 +564,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, Diego Pol et ses collègues compilent plusieurs études phylogénétiques antérieures et reprennent l'analyse pour aboutir à une matrice incluant 109 Crocodyliformes et genres proches dont 412 caractères morphologiques sont étudiés. Ils classent les Baurusuchidae  comme des Notosuchia placés dans les clades successifs des Ziphosuchia et des Sebecosuchia[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, Diego Pol et ses collègues compilent plusieurs études phylogénétiques antérieures et reprennent l'analyse pour aboutir à une matrice incluant 109 Crocodyliformes et genres proches dont 412 caractères morphologiques sont étudiés. Ils classent les Baurusuchidae  comme des Notosuchia placés dans les clades successifs des Ziphosuchia et des Sebecosuchia.
 </t>
         </is>
       </c>
